--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Stuff\Github\Visualisasi-Prediksi-Pengangguran-Terbuka-Berdasarkan-Umur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A7753-59CC-4AB2-90E0-EFC0D9CFE09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819DF87-4232-4FC5-BFBF-27F6C5FB378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{B7CE34E8-073A-42E5-8AA2-11B12B6674C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{B7CE34E8-073A-42E5-8AA2-11B12B6674C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Before" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Data Training" sheetId="5" r:id="rId4"/>
     <sheet name="Data Testing" sheetId="6" r:id="rId5"/>
     <sheet name="Data" sheetId="7" r:id="rId6"/>
-    <sheet name="Testing" sheetId="8" r:id="rId7"/>
+    <sheet name="Ramalan" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -438,6 +438,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,18 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4969,6 +4969,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:T39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="L73:L76"/>
+    <mergeCell ref="M73:T73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B39:B42"/>
@@ -4985,90 +5069,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="M56:T56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="L73:L76"/>
-    <mergeCell ref="M73:T73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:T39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6276,16 +6276,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="M29:N29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:B25"/>
@@ -6302,6 +6292,16 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6344,71 +6344,71 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="31" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="31" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="31" t="s">
+      <c r="R4" s="36"/>
+      <c r="S4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="36"/>
+      <c r="U4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="32"/>
+      <c r="V4" s="36"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
@@ -7246,71 +7246,71 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="31" t="s">
+      <c r="H27" s="36"/>
+      <c r="I27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="31" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="31" t="s">
+      <c r="L27" s="36"/>
+      <c r="M27" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="31" t="s">
+      <c r="N27" s="36"/>
+      <c r="O27" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="31" t="s">
+      <c r="P27" s="36"/>
+      <c r="Q27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="31" t="s">
+      <c r="R27" s="36"/>
+      <c r="S27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="31" t="s">
+      <c r="T27" s="36"/>
+      <c r="U27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="32"/>
+      <c r="V27" s="36"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
@@ -8308,40 +8308,40 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="31" t="s">
+      <c r="F44" s="33"/>
+      <c r="G44" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="31" t="s">
+      <c r="H44" s="36"/>
+      <c r="I44" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="31" t="s">
+      <c r="J44" s="36"/>
+      <c r="K44" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="L44" s="32"/>
+      <c r="L44" s="36"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
@@ -8353,7 +8353,7 @@
       <c r="W44" s="17"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
       </c>
@@ -8971,43 +8971,43 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35" t="s">
+      <c r="D61" s="33"/>
+      <c r="E61" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="35" t="s">
+      <c r="F61" s="33"/>
+      <c r="G61" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="35" t="s">
+      <c r="H61" s="33"/>
+      <c r="I61" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J61" s="36"/>
-      <c r="K61" s="31" t="s">
+      <c r="J61" s="33"/>
+      <c r="K61" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="32"/>
+      <c r="L61" s="36"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="12" t="s">
         <v>6</v>
       </c>
@@ -9536,30 +9536,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="D43:J43"/>
     <mergeCell ref="D60:J60"/>
@@ -9574,6 +9550,30 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12202,6 +12202,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="T17:U17"/>
@@ -12212,30 +12236,6 @@
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12246,7 +12246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F629120-A968-46FA-806F-80DB4F7E279A}">
   <dimension ref="B2:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -12907,71 +12907,71 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="31" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="31" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="32"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
@@ -13788,10 +13788,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6187A48A-D5CA-46DB-A520-3F1A66BE5931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7930F-A427-4174-8C87-0E5A1BD99A13}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Stuff\Github\Visualisasi-Prediksi-Pengangguran-Terbuka-Berdasarkan-Umur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819DF87-4232-4FC5-BFBF-27F6C5FB378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281FB1B-FE70-45F1-9D02-53807092A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{B7CE34E8-073A-42E5-8AA2-11B12B6674C2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="63">
   <si>
     <t>Golongan Umur</t>
   </si>
@@ -224,6 +224,12 @@
   <si>
     <t>Selisih</t>
   </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target Prediksi</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,18 +444,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,9 +456,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31" customBuiltin="1"/>
@@ -4969,6 +4987,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="L73:L76"/>
+    <mergeCell ref="M73:T73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:T39"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B73:B76"/>
@@ -4985,90 +5087,6 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="I57:J57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:T39"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="L73:L76"/>
-    <mergeCell ref="M73:T73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="M56:T56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6276,6 +6294,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:B25"/>
@@ -6292,16 +6320,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6344,71 +6362,71 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="35" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="35" t="s">
+      <c r="P4" s="32"/>
+      <c r="Q4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="35" t="s">
+      <c r="R4" s="32"/>
+      <c r="S4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="36"/>
-      <c r="U4" s="35" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="36"/>
+      <c r="V4" s="32"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
@@ -7246,71 +7264,71 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="35" t="s">
+      <c r="F27" s="36"/>
+      <c r="G27" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="35" t="s">
+      <c r="H27" s="32"/>
+      <c r="I27" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="35" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="35" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="35" t="s">
+      <c r="N27" s="32"/>
+      <c r="O27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="35" t="s">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="35" t="s">
+      <c r="R27" s="32"/>
+      <c r="S27" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="35" t="s">
+      <c r="T27" s="32"/>
+      <c r="U27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="36"/>
+      <c r="V27" s="32"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
@@ -8308,40 +8326,40 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="36"/>
+      <c r="G44" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="35" t="s">
+      <c r="H44" s="32"/>
+      <c r="I44" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="36"/>
-      <c r="K44" s="35" t="s">
+      <c r="J44" s="32"/>
+      <c r="K44" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L44" s="36"/>
+      <c r="L44" s="32"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
@@ -8353,7 +8371,7 @@
       <c r="W44" s="17"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
       </c>
@@ -8971,43 +8989,43 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34" t="s">
+      <c r="D61" s="36"/>
+      <c r="E61" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="34" t="s">
+      <c r="F61" s="36"/>
+      <c r="G61" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="34" t="s">
+      <c r="H61" s="36"/>
+      <c r="I61" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J61" s="33"/>
-      <c r="K61" s="35" t="s">
+      <c r="J61" s="36"/>
+      <c r="K61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="36"/>
+      <c r="L61" s="32"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="12" t="s">
         <v>6</v>
       </c>
@@ -9536,6 +9554,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="D43:J43"/>
     <mergeCell ref="D60:J60"/>
@@ -9550,30 +9592,6 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12202,30 +12220,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B50:C50"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="T17:U17"/>
@@ -12236,6 +12230,30 @@
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="N33:O33"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12894,894 +12912,868 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D2C95B-419A-471B-97BB-38023F4A7925}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="32"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="H1" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="J1" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="L1" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="N1" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="P1" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="Q1" s="32"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="R1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="32"/>
+      <c r="T1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1574780</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2331003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1492527</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2250148</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1506499</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1885820</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1255210</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1747151</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1185867</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1954126</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1129455</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1649825</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1045299</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1617950</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1292778</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1624465</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1212400</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1469332</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1133739</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1856292</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>1574780</v>
+        <v>2233889</v>
       </c>
       <c r="C4" s="3">
-        <v>2331003</v>
+        <v>2180839</v>
       </c>
       <c r="D4" s="3">
-        <v>1492527</v>
+        <v>2207102</v>
       </c>
       <c r="E4" s="3">
-        <v>2250148</v>
+        <v>2217984</v>
       </c>
       <c r="F4" s="3">
-        <v>1506499</v>
+        <v>2454384</v>
       </c>
       <c r="G4" s="3">
-        <v>1885820</v>
+        <v>2710132</v>
       </c>
       <c r="H4" s="3">
-        <v>1255210</v>
+        <v>2475889</v>
       </c>
       <c r="I4" s="3">
-        <v>1747151</v>
+        <v>2327760</v>
       </c>
       <c r="J4" s="3">
-        <v>1185867</v>
+        <v>2157591</v>
       </c>
       <c r="K4" s="3">
-        <v>1954126</v>
+        <v>2192794</v>
       </c>
       <c r="L4" s="3">
-        <v>1129455</v>
+        <v>2494756</v>
       </c>
       <c r="M4" s="3">
-        <v>1649825</v>
+        <v>2471559</v>
       </c>
       <c r="N4" s="3">
-        <v>1045299</v>
+        <v>2278376</v>
       </c>
       <c r="O4" s="3">
-        <v>1617950</v>
+        <v>2362143</v>
       </c>
       <c r="P4" s="3">
-        <v>1292778</v>
+        <v>2206310</v>
       </c>
       <c r="Q4" s="3">
-        <v>1624465</v>
+        <v>2756019</v>
       </c>
       <c r="R4" s="3">
-        <v>1212400</v>
+        <v>2609339</v>
       </c>
       <c r="S4" s="3">
-        <v>1469332</v>
+        <v>2597807</v>
       </c>
       <c r="T4" s="3">
-        <v>1133739</v>
+        <v>2504512</v>
       </c>
       <c r="U4" s="3">
-        <v>1856292</v>
+        <v>2540121</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>2233889</v>
+        <v>1243429</v>
       </c>
       <c r="C5" s="3">
-        <v>2180839</v>
+        <v>1058668</v>
       </c>
       <c r="D5" s="3">
-        <v>2207102</v>
+        <v>1025031</v>
       </c>
       <c r="E5" s="3">
-        <v>2217984</v>
+        <v>1015728</v>
       </c>
       <c r="F5" s="3">
-        <v>2454384</v>
+        <v>1372110</v>
       </c>
       <c r="G5" s="3">
-        <v>2710132</v>
+        <v>1244410</v>
       </c>
       <c r="H5" s="3">
-        <v>2475889</v>
+        <v>1241027</v>
       </c>
       <c r="I5" s="3">
-        <v>2327760</v>
+        <v>1099494</v>
       </c>
       <c r="J5" s="3">
-        <v>2157591</v>
+        <v>1121551</v>
       </c>
       <c r="K5" s="3">
-        <v>2192794</v>
+        <v>942386</v>
       </c>
       <c r="L5" s="3">
-        <v>2494756</v>
+        <v>1223974</v>
       </c>
       <c r="M5" s="3">
-        <v>2471559</v>
+        <v>1133511</v>
       </c>
       <c r="N5" s="3">
-        <v>2278376</v>
+        <v>1268358</v>
       </c>
       <c r="O5" s="3">
-        <v>2362143</v>
+        <v>1181384</v>
       </c>
       <c r="P5" s="3">
-        <v>2206310</v>
+        <v>1177974</v>
       </c>
       <c r="Q5" s="3">
-        <v>2756019</v>
+        <v>1577866</v>
       </c>
       <c r="R5" s="3">
-        <v>2609339</v>
+        <v>1534639</v>
       </c>
       <c r="S5" s="3">
-        <v>2597807</v>
+        <v>1516745</v>
       </c>
       <c r="T5" s="3">
-        <v>2504512</v>
+        <v>1343508</v>
       </c>
       <c r="U5" s="3">
-        <v>2540121</v>
+        <v>1166262</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>1243429</v>
+        <v>689715</v>
       </c>
       <c r="C6" s="3">
-        <v>1058668</v>
+        <v>606274</v>
       </c>
       <c r="D6" s="3">
-        <v>1025031</v>
+        <v>662575</v>
       </c>
       <c r="E6" s="3">
-        <v>1015728</v>
+        <v>614620</v>
       </c>
       <c r="F6" s="3">
-        <v>1372110</v>
+        <v>655740</v>
       </c>
       <c r="G6" s="3">
-        <v>1244410</v>
+        <v>576814</v>
       </c>
       <c r="H6" s="3">
-        <v>1241027</v>
+        <v>517476</v>
       </c>
       <c r="I6" s="3">
-        <v>1099494</v>
+        <v>559107</v>
       </c>
       <c r="J6" s="3">
-        <v>1121551</v>
+        <v>600742</v>
       </c>
       <c r="K6" s="3">
-        <v>942386</v>
+        <v>530219</v>
       </c>
       <c r="L6" s="3">
-        <v>1223974</v>
+        <v>671914</v>
       </c>
       <c r="M6" s="3">
-        <v>1133511</v>
+        <v>555859</v>
       </c>
       <c r="N6" s="3">
-        <v>1268358</v>
+        <v>607437</v>
       </c>
       <c r="O6" s="3">
-        <v>1181384</v>
+        <v>572878</v>
       </c>
       <c r="P6" s="3">
-        <v>1177974</v>
+        <v>539005</v>
       </c>
       <c r="Q6" s="3">
-        <v>1577866</v>
+        <v>931925</v>
       </c>
       <c r="R6" s="3">
-        <v>1534639</v>
+        <v>806661</v>
       </c>
       <c r="S6" s="3">
-        <v>1516745</v>
+        <v>893483</v>
       </c>
       <c r="T6" s="3">
-        <v>1343508</v>
+        <v>754722</v>
       </c>
       <c r="U6" s="3">
-        <v>1166262</v>
+        <v>608412</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>689715</v>
+        <v>471329</v>
       </c>
       <c r="C7" s="3">
-        <v>606274</v>
+        <v>346665</v>
       </c>
       <c r="D7" s="3">
-        <v>662575</v>
+        <v>467781</v>
       </c>
       <c r="E7" s="3">
-        <v>614620</v>
+        <v>326225</v>
       </c>
       <c r="F7" s="3">
-        <v>655740</v>
+        <v>386609</v>
       </c>
       <c r="G7" s="3">
-        <v>576814</v>
+        <v>359826</v>
       </c>
       <c r="H7" s="3">
-        <v>517476</v>
+        <v>400794</v>
       </c>
       <c r="I7" s="3">
-        <v>559107</v>
+        <v>339303</v>
       </c>
       <c r="J7" s="3">
-        <v>600742</v>
+        <v>412185</v>
       </c>
       <c r="K7" s="3">
-        <v>530219</v>
+        <v>431185</v>
       </c>
       <c r="L7" s="3">
-        <v>671914</v>
+        <v>398486</v>
       </c>
       <c r="M7" s="3">
-        <v>555859</v>
+        <v>400804</v>
       </c>
       <c r="N7" s="3">
-        <v>607437</v>
+        <v>431590</v>
       </c>
       <c r="O7" s="3">
-        <v>572878</v>
+        <v>365259</v>
       </c>
       <c r="P7" s="3">
-        <v>539005</v>
+        <v>439372</v>
       </c>
       <c r="Q7" s="3">
-        <v>931925</v>
+        <v>703300</v>
       </c>
       <c r="R7" s="3">
-        <v>806661</v>
+        <v>618486</v>
       </c>
       <c r="S7" s="3">
-        <v>893483</v>
+        <v>667887</v>
       </c>
       <c r="T7" s="3">
-        <v>754722</v>
+        <v>649921</v>
       </c>
       <c r="U7" s="3">
-        <v>608412</v>
+        <v>439940</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>471329</v>
+        <v>353612</v>
       </c>
       <c r="C8" s="3">
-        <v>346665</v>
+        <v>307509</v>
       </c>
       <c r="D8" s="3">
-        <v>467781</v>
+        <v>361287</v>
       </c>
       <c r="E8" s="3">
-        <v>326225</v>
+        <v>260597</v>
       </c>
       <c r="F8" s="3">
-        <v>386609</v>
+        <v>278279</v>
       </c>
       <c r="G8" s="3">
-        <v>359826</v>
+        <v>228339</v>
       </c>
       <c r="H8" s="3">
-        <v>400794</v>
+        <v>262133</v>
       </c>
       <c r="I8" s="3">
-        <v>339303</v>
+        <v>302422</v>
       </c>
       <c r="J8" s="3">
-        <v>412185</v>
+        <v>376225</v>
       </c>
       <c r="K8" s="3">
-        <v>431185</v>
+        <v>270261</v>
       </c>
       <c r="L8" s="3">
-        <v>398486</v>
+        <v>318750</v>
       </c>
       <c r="M8" s="3">
-        <v>400804</v>
+        <v>277747</v>
       </c>
       <c r="N8" s="3">
-        <v>431590</v>
+        <v>330424</v>
       </c>
       <c r="O8" s="3">
-        <v>365259</v>
+        <v>321300</v>
       </c>
       <c r="P8" s="3">
-        <v>439372</v>
+        <v>320744</v>
       </c>
       <c r="Q8" s="3">
-        <v>703300</v>
+        <v>618192</v>
       </c>
       <c r="R8" s="3">
-        <v>618486</v>
+        <v>570598</v>
       </c>
       <c r="S8" s="3">
-        <v>667887</v>
+        <v>552795</v>
       </c>
       <c r="T8" s="3">
-        <v>649921</v>
+        <v>594249</v>
       </c>
       <c r="U8" s="3">
-        <v>439940</v>
+        <v>395168</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>353612</v>
+        <v>257515</v>
       </c>
       <c r="C9" s="3">
-        <v>307509</v>
+        <v>229009</v>
       </c>
       <c r="D9" s="3">
-        <v>361287</v>
+        <v>351230</v>
       </c>
       <c r="E9" s="3">
-        <v>260597</v>
+        <v>200366</v>
       </c>
       <c r="F9" s="3">
-        <v>278279</v>
+        <v>352618</v>
       </c>
       <c r="G9" s="3">
-        <v>228339</v>
+        <v>201365</v>
       </c>
       <c r="H9" s="3">
-        <v>262133</v>
+        <v>224408</v>
       </c>
       <c r="I9" s="3">
-        <v>302422</v>
+        <v>176741</v>
       </c>
       <c r="J9" s="3">
-        <v>376225</v>
+        <v>384380</v>
       </c>
       <c r="K9" s="3">
-        <v>270261</v>
+        <v>209213</v>
       </c>
       <c r="L9" s="3">
-        <v>318750</v>
+        <v>256955</v>
       </c>
       <c r="M9" s="3">
-        <v>277747</v>
+        <v>224142</v>
       </c>
       <c r="N9" s="3">
-        <v>330424</v>
+        <v>322647</v>
       </c>
       <c r="O9" s="3">
-        <v>321300</v>
+        <v>263223</v>
       </c>
       <c r="P9" s="3">
-        <v>320744</v>
+        <v>279753</v>
       </c>
       <c r="Q9" s="3">
-        <v>618192</v>
+        <v>520964</v>
       </c>
       <c r="R9" s="3">
-        <v>570598</v>
+        <v>488428</v>
       </c>
       <c r="S9" s="3">
-        <v>552795</v>
+        <v>498954</v>
       </c>
       <c r="T9" s="3">
-        <v>594249</v>
+        <v>604900</v>
       </c>
       <c r="U9" s="3">
-        <v>395168</v>
+        <v>355844</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>257515</v>
+        <v>250295</v>
       </c>
       <c r="C10" s="3">
-        <v>229009</v>
+        <v>205646</v>
       </c>
       <c r="D10" s="3">
-        <v>351230</v>
+        <v>322576</v>
       </c>
       <c r="E10" s="3">
-        <v>200366</v>
+        <v>195049</v>
       </c>
       <c r="F10" s="3">
-        <v>352618</v>
+        <v>207091</v>
       </c>
       <c r="G10" s="3">
-        <v>201365</v>
+        <v>148142</v>
       </c>
       <c r="H10" s="3">
-        <v>224408</v>
+        <v>232180</v>
       </c>
       <c r="I10" s="3">
-        <v>176741</v>
+        <v>182836</v>
       </c>
       <c r="J10" s="3">
-        <v>384380</v>
+        <v>297844</v>
       </c>
       <c r="K10" s="3">
-        <v>209213</v>
+        <v>178588</v>
       </c>
       <c r="L10" s="3">
-        <v>256955</v>
+        <v>206608</v>
       </c>
       <c r="M10" s="3">
-        <v>224142</v>
+        <v>165300</v>
       </c>
       <c r="N10" s="3">
-        <v>322647</v>
+        <v>207872</v>
       </c>
       <c r="O10" s="3">
-        <v>263223</v>
+        <v>202984</v>
       </c>
       <c r="P10" s="3">
-        <v>279753</v>
+        <v>267686</v>
       </c>
       <c r="Q10" s="3">
-        <v>520964</v>
+        <v>460375</v>
       </c>
       <c r="R10" s="3">
-        <v>488428</v>
+        <v>390218</v>
       </c>
       <c r="S10" s="3">
-        <v>498954</v>
+        <v>284918</v>
       </c>
       <c r="T10" s="3">
-        <v>604900</v>
+        <v>495351</v>
       </c>
       <c r="U10" s="3">
-        <v>355844</v>
+        <v>324182</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
-        <v>250295</v>
+        <v>114522</v>
       </c>
       <c r="C11" s="3">
-        <v>205646</v>
+        <v>93852</v>
       </c>
       <c r="D11" s="3">
-        <v>322576</v>
+        <v>154469</v>
       </c>
       <c r="E11" s="3">
-        <v>195049</v>
+        <v>99847</v>
       </c>
       <c r="F11" s="3">
-        <v>207091</v>
+        <v>162058</v>
       </c>
       <c r="G11" s="3">
-        <v>148142</v>
+        <v>137890</v>
       </c>
       <c r="H11" s="3">
-        <v>232180</v>
+        <v>133479</v>
       </c>
       <c r="I11" s="3">
-        <v>182836</v>
+        <v>131259</v>
       </c>
       <c r="J11" s="3">
-        <v>297844</v>
+        <v>278554</v>
       </c>
       <c r="K11" s="3">
-        <v>178588</v>
+        <v>154821</v>
       </c>
       <c r="L11" s="3">
-        <v>206608</v>
+        <v>158746</v>
       </c>
       <c r="M11" s="3">
-        <v>165300</v>
+        <v>113972</v>
       </c>
       <c r="N11" s="3">
-        <v>207872</v>
+        <v>159477</v>
       </c>
       <c r="O11" s="3">
-        <v>202984</v>
+        <v>123901</v>
       </c>
       <c r="P11" s="3">
-        <v>267686</v>
+        <v>244416</v>
       </c>
       <c r="Q11" s="3">
-        <v>460375</v>
+        <v>319179</v>
       </c>
       <c r="R11" s="3">
-        <v>390218</v>
+        <v>319643</v>
       </c>
       <c r="S11" s="3">
-        <v>284918</v>
+        <v>201166</v>
       </c>
       <c r="T11" s="3">
-        <v>495351</v>
+        <v>122140</v>
       </c>
       <c r="U11" s="3">
-        <v>324182</v>
+        <v>254169</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
-        <v>114522</v>
+        <v>51811</v>
       </c>
       <c r="C12" s="3">
-        <v>93852</v>
+        <v>51466</v>
       </c>
       <c r="D12" s="3">
-        <v>154469</v>
+        <v>102491</v>
       </c>
       <c r="E12" s="3">
-        <v>99847</v>
+        <v>64341</v>
       </c>
       <c r="F12" s="3">
-        <v>162058</v>
+        <v>79379</v>
       </c>
       <c r="G12" s="3">
-        <v>137890</v>
+        <v>68084</v>
       </c>
       <c r="H12" s="3">
-        <v>133479</v>
+        <v>281576</v>
       </c>
       <c r="I12" s="3">
-        <v>131259</v>
+        <v>165702</v>
       </c>
       <c r="J12" s="3">
-        <v>278554</v>
+        <v>190323</v>
       </c>
       <c r="K12" s="3">
-        <v>154821</v>
+        <v>176730</v>
       </c>
       <c r="L12" s="3">
-        <v>158746</v>
+        <v>103813</v>
       </c>
       <c r="M12" s="3">
-        <v>113972</v>
+        <v>80666</v>
       </c>
       <c r="N12" s="3">
-        <v>159477</v>
+        <v>247316</v>
       </c>
       <c r="O12" s="3">
-        <v>123901</v>
+        <v>93402</v>
       </c>
       <c r="P12" s="3">
-        <v>244416</v>
+        <v>157448</v>
       </c>
       <c r="Q12" s="3">
-        <v>319179</v>
+        <v>255469</v>
       </c>
       <c r="R12" s="3">
-        <v>319643</v>
+        <v>195596</v>
       </c>
       <c r="S12" s="3">
-        <v>201166</v>
+        <v>418965</v>
       </c>
       <c r="T12" s="3">
-        <v>122140</v>
+        <v>199111</v>
       </c>
       <c r="U12" s="3">
-        <v>254169</v>
+        <v>485541</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>51811</v>
-      </c>
-      <c r="C13" s="3">
-        <v>51466</v>
-      </c>
-      <c r="D13" s="3">
-        <v>102491</v>
-      </c>
-      <c r="E13" s="3">
-        <v>64341</v>
-      </c>
-      <c r="F13" s="3">
-        <v>79379</v>
-      </c>
-      <c r="G13" s="3">
-        <v>68084</v>
-      </c>
-      <c r="H13" s="3">
-        <v>281576</v>
-      </c>
-      <c r="I13" s="3">
-        <v>165702</v>
-      </c>
-      <c r="J13" s="3">
-        <v>190323</v>
-      </c>
-      <c r="K13" s="3">
-        <v>176730</v>
-      </c>
-      <c r="L13" s="3">
-        <v>103813</v>
-      </c>
-      <c r="M13" s="3">
-        <v>80666</v>
-      </c>
-      <c r="N13" s="3">
-        <v>247316</v>
-      </c>
-      <c r="O13" s="3">
-        <v>93402</v>
-      </c>
-      <c r="P13" s="3">
-        <v>157448</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>255469</v>
-      </c>
-      <c r="R13" s="3">
-        <v>195596</v>
-      </c>
-      <c r="S13" s="3">
-        <v>418965</v>
-      </c>
-      <c r="T13" s="3">
-        <v>199111</v>
-      </c>
-      <c r="U13" s="3">
-        <v>485541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14">
-        <f>SUM(B4:B13)</f>
+      <c r="B13" s="14">
+        <f>SUM(B3:B12)</f>
         <v>7240897</v>
       </c>
-      <c r="C14" s="14">
-        <f t="shared" ref="C14:U14" si="0">SUM(C4:C13)</f>
+      <c r="C13" s="14">
+        <f t="shared" ref="C13:U13" si="0">SUM(C3:C12)</f>
         <v>7410931</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
         <v>7147069</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>7244905</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>7454767</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>7560822</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
         <v>7024172</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I13" s="14">
         <f t="shared" si="0"/>
         <v>7031775</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J13" s="14">
         <f t="shared" si="0"/>
         <v>7005262</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K13" s="14">
         <f t="shared" si="0"/>
         <v>7040323</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L13" s="14">
         <f t="shared" si="0"/>
         <v>6963457</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M13" s="14">
         <f t="shared" si="0"/>
         <v>7073385</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N13" s="14">
         <f t="shared" si="0"/>
         <v>6898796</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O13" s="14">
         <f t="shared" si="0"/>
         <v>7104424</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P13" s="14">
         <f t="shared" si="0"/>
         <v>6925486</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q13" s="14">
         <f t="shared" si="0"/>
         <v>9767754</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R13" s="14">
         <f t="shared" si="0"/>
         <v>8746008</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S13" s="14">
         <f t="shared" si="0"/>
         <v>9102052</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T13" s="14">
         <f t="shared" si="0"/>
         <v>8402153</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U13" s="14">
         <f t="shared" si="0"/>
         <v>8425931</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
+  <mergeCells count="11">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13789,12 +13781,329 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7930F-A427-4174-8C87-0E5A1BD99A13}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="40">
+        <v>2022</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1133739</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1856292</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.42015999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.63390999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.42015999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.63390999999999997</v>
+      </c>
+      <c r="H3" s="44">
+        <v>1133828.1106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2504512</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2540121</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.82523000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.83548999999999995</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.82523000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.83548999999999995</v>
+      </c>
+      <c r="H4" s="44">
+        <v>2503244.7152375001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1343508</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1166262</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.48208000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.42952000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.48208000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.42952000000000001</v>
+      </c>
+      <c r="H5" s="44">
+        <v>1343160.5127999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>754722</v>
+      </c>
+      <c r="C6" s="1">
+        <v>608412</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.30813000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.26478000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.30813000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.26478000000000002</v>
+      </c>
+      <c r="H6" s="44">
+        <v>755089.26986250002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>649921</v>
+      </c>
+      <c r="C7" s="1">
+        <v>439940</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.27675</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.21478</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.27675</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.21478</v>
+      </c>
+      <c r="H7" s="44">
+        <v>649003.17843749991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>594249</v>
+      </c>
+      <c r="C8" s="1">
+        <v>395168</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.24018999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.24018999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="H8" s="44">
+        <v>525405.1063374998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>604900</v>
+      </c>
+      <c r="C9" s="1">
+        <v>355844</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.22048000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.21004999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.22048000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.21004999999999999</v>
+      </c>
+      <c r="H9" s="44">
+        <v>458771.68180000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>495351</v>
+      </c>
+      <c r="C10" s="1">
+        <v>324182</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.20394999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.19763</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.20394999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.19763</v>
+      </c>
+      <c r="H10" s="44">
+        <v>402888.85543749994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>122140</v>
+      </c>
+      <c r="C11" s="1">
+        <v>254169</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.16797999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.16797999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="H11" s="44">
+        <v>281285.39117499994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>199111</v>
+      </c>
+      <c r="C12" s="1">
+        <v>485541</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.14341000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.22811000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.14341000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.22811000000000001</v>
+      </c>
+      <c r="H12" s="44">
+        <v>198221.80716250002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <f>SUM(B3:B12)</f>
+        <v>8402153</v>
+      </c>
+      <c r="C13" s="41">
+        <f t="shared" ref="C13:H13" si="0">SUM(C3:C12)</f>
+        <v>8425931</v>
+      </c>
+      <c r="D13" s="41">
+        <f t="shared" si="0"/>
+        <v>3.2883599999999995</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" si="0"/>
+        <v>3.4248400000000006</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="0"/>
+        <v>3.2883599999999995</v>
+      </c>
+      <c r="G13" s="41">
+        <f t="shared" si="0"/>
+        <v>3.4248400000000006</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" si="0"/>
+        <v>8250898.6288500009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Stuff\Github\Visualisasi-Prediksi-Pengangguran-Terbuka-Berdasarkan-Umur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SECDISK\Kuliah\Tugas\Semester4\Anum\UAS\Pull 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281FB1B-FE70-45F1-9D02-53807092A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913C1A31-DBB2-4227-A936-FA473344B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{B7CE34E8-073A-42E5-8AA2-11B12B6674C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{B7CE34E8-073A-42E5-8AA2-11B12B6674C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Before" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,15 +477,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31" customBuiltin="1"/>
@@ -1146,107 +1146,107 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="L5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25" t="s">
+      <c r="J6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="25"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="28">
         <v>2013</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28">
         <v>2013</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
         <v>2013</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
         <v>2013</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25">
+      <c r="J7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="28">
         <v>2018</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>2018</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>2018</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25">
+      <c r="R7" s="28"/>
+      <c r="S7" s="28">
         <v>2018</v>
       </c>
-      <c r="T7" s="25"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="J8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1914,107 +1914,107 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="L22" s="26" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="L22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="25" t="s">
+      <c r="J23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25" t="s">
+      <c r="N23" s="28"/>
+      <c r="O23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25" t="s">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25" t="s">
+      <c r="R23" s="28"/>
+      <c r="S23" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="25"/>
+      <c r="T23" s="28"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="28">
         <v>2014</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28">
         <v>2014</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25">
+      <c r="F24" s="28"/>
+      <c r="G24" s="28">
         <v>2014</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25">
+      <c r="H24" s="28"/>
+      <c r="I24" s="28">
         <v>2014</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="25">
+      <c r="J24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="28">
         <v>2019</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25">
+      <c r="N24" s="28"/>
+      <c r="O24" s="28">
         <v>2019</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25">
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28">
         <v>2019</v>
       </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25">
+      <c r="R24" s="28"/>
+      <c r="S24" s="28">
         <v>2019</v>
       </c>
-      <c r="T24" s="25"/>
+      <c r="T24" s="28"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="J25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="26"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="7" t="s">
         <v>6</v>
       </c>
@@ -2682,107 +2682,107 @@
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="L39" s="26" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="L39" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25" t="s">
+      <c r="H40" s="28"/>
+      <c r="I40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="25" t="s">
+      <c r="J40" s="28"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25" t="s">
+      <c r="N40" s="28"/>
+      <c r="O40" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25" t="s">
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25" t="s">
+      <c r="R40" s="28"/>
+      <c r="S40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T40" s="25"/>
+      <c r="T40" s="28"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="25">
+      <c r="B41" s="29"/>
+      <c r="C41" s="28">
         <v>2015</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28">
         <v>2015</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25">
+      <c r="F41" s="28"/>
+      <c r="G41" s="28">
         <v>2015</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25">
+      <c r="H41" s="28"/>
+      <c r="I41" s="28">
         <v>2015</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="25">
+      <c r="J41" s="28"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="28">
         <v>2020</v>
       </c>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25">
+      <c r="N41" s="28"/>
+      <c r="O41" s="28">
         <v>2020</v>
       </c>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25">
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28">
         <v>2020</v>
       </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25">
+      <c r="R41" s="28"/>
+      <c r="S41" s="28">
         <v>2020</v>
       </c>
-      <c r="T41" s="25"/>
+      <c r="T41" s="28"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7" t="s">
         <v>6</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="J42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="26"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="7" t="s">
         <v>6</v>
       </c>
@@ -3450,107 +3450,107 @@
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="L56" s="26" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="L56" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M56" s="25" t="s">
+      <c r="M56" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="26"/>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25" t="s">
+      <c r="F57" s="28"/>
+      <c r="G57" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25" t="s">
+      <c r="H57" s="28"/>
+      <c r="I57" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="25"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="25" t="s">
+      <c r="J57" s="28"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25" t="s">
+      <c r="N57" s="28"/>
+      <c r="O57" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25" t="s">
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25" t="s">
+      <c r="R57" s="28"/>
+      <c r="S57" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="25"/>
+      <c r="T57" s="28"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
-      <c r="C58" s="25">
+      <c r="B58" s="29"/>
+      <c r="C58" s="28">
         <v>2016</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25">
+      <c r="D58" s="28"/>
+      <c r="E58" s="28">
         <v>2016</v>
       </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25">
+      <c r="F58" s="28"/>
+      <c r="G58" s="28">
         <v>2016</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25">
+      <c r="H58" s="28"/>
+      <c r="I58" s="28">
         <v>2016</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="25">
+      <c r="J58" s="28"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="28">
         <v>2021</v>
       </c>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25">
+      <c r="N58" s="28"/>
+      <c r="O58" s="28">
         <v>2021</v>
       </c>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25">
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28">
         <v>2021</v>
       </c>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25">
+      <c r="R58" s="28"/>
+      <c r="S58" s="28">
         <v>2021</v>
       </c>
-      <c r="T58" s="25"/>
+      <c r="T58" s="28"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="J59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L59" s="26"/>
+      <c r="L59" s="29"/>
       <c r="M59" s="7" t="s">
         <v>6</v>
       </c>
@@ -4218,107 +4218,107 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="L73" s="26" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="L73" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M73" s="25" t="s">
+      <c r="M73" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="26"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25" t="s">
+      <c r="D74" s="28"/>
+      <c r="E74" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25" t="s">
+      <c r="F74" s="28"/>
+      <c r="G74" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25" t="s">
+      <c r="H74" s="28"/>
+      <c r="I74" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J74" s="25"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="25" t="s">
+      <c r="J74" s="28"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25" t="s">
+      <c r="N74" s="28"/>
+      <c r="O74" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25" t="s">
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25" t="s">
+      <c r="R74" s="28"/>
+      <c r="S74" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T74" s="25"/>
+      <c r="T74" s="28"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="26"/>
-      <c r="C75" s="25">
+      <c r="B75" s="29"/>
+      <c r="C75" s="28">
         <v>2017</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25">
+      <c r="D75" s="28"/>
+      <c r="E75" s="28">
         <v>2017</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25">
+      <c r="F75" s="28"/>
+      <c r="G75" s="28">
         <v>2017</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25">
+      <c r="H75" s="28"/>
+      <c r="I75" s="28">
         <v>2017</v>
       </c>
-      <c r="J75" s="25"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="25">
+      <c r="J75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="28">
         <v>2022</v>
       </c>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25">
+      <c r="N75" s="28"/>
+      <c r="O75" s="28">
         <v>2022</v>
       </c>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25">
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28">
         <v>2022</v>
       </c>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25">
+      <c r="R75" s="28"/>
+      <c r="S75" s="28">
         <v>2022</v>
       </c>
-      <c r="T75" s="25"/>
+      <c r="T75" s="28"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="26"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="7" t="s">
         <v>6</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="J76" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L76" s="26"/>
+      <c r="L76" s="29"/>
       <c r="M76" s="7" t="s">
         <v>6</v>
       </c>
@@ -5139,38 +5139,38 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
@@ -5186,10 +5186,10 @@
       <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
+      <c r="B6" s="28">
         <v>2013</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5216,7 +5216,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="28">
         <v>2014</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
+      <c r="B10" s="28">
         <v>2015</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5320,7 +5320,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5345,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="25">
+      <c r="B12" s="28">
         <v>2016</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5373,7 +5373,7 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +5399,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
+      <c r="B14" s="28">
         <v>2017</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5432,7 +5432,7 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="28">
         <v>2018</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5496,7 +5496,7 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="28">
         <v>2019</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -5558,7 +5558,7 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="28">
         <v>2020</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -5618,7 +5618,7 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="28">
         <v>2021</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -5678,7 +5678,7 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
@@ -5707,7 +5707,7 @@
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="28">
         <v>2022</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -5736,7 +5736,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
@@ -5775,52 +5775,52 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="30">
         <v>2013</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27">
+      <c r="D29" s="31"/>
+      <c r="E29" s="30">
         <v>2014</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27">
+      <c r="F29" s="31"/>
+      <c r="G29" s="30">
         <v>2015</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="27">
+      <c r="H29" s="31"/>
+      <c r="I29" s="30">
         <v>2016</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="27">
+      <c r="J29" s="31"/>
+      <c r="K29" s="30">
         <v>2017</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="27">
+      <c r="L29" s="31"/>
+      <c r="M29" s="30">
         <v>2018</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="27">
+      <c r="N29" s="31"/>
+      <c r="O29" s="30">
         <v>2019</v>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="27">
+      <c r="P29" s="31"/>
+      <c r="Q29" s="30">
         <v>2020</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="27">
+      <c r="R29" s="31"/>
+      <c r="S29" s="30">
         <v>2021</v>
       </c>
-      <c r="T29" s="28"/>
-      <c r="U29" s="27">
+      <c r="T29" s="31"/>
+      <c r="U29" s="30">
         <v>2022</v>
       </c>
-      <c r="V29" s="28"/>
+      <c r="V29" s="31"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
@@ -6362,71 +6362,71 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="31" t="s">
+      <c r="N4" s="35"/>
+      <c r="O4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="31" t="s">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="31" t="s">
+      <c r="R4" s="35"/>
+      <c r="S4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="35"/>
+      <c r="U4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="32"/>
+      <c r="V4" s="35"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
@@ -7264,71 +7264,71 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="31" t="s">
+      <c r="H27" s="35"/>
+      <c r="I27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="31" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="31" t="s">
+      <c r="L27" s="35"/>
+      <c r="M27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="31" t="s">
+      <c r="N27" s="35"/>
+      <c r="O27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="31" t="s">
+      <c r="P27" s="35"/>
+      <c r="Q27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="31" t="s">
+      <c r="R27" s="35"/>
+      <c r="S27" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="31" t="s">
+      <c r="T27" s="35"/>
+      <c r="U27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="32"/>
+      <c r="V27" s="35"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
@@ -8326,40 +8326,40 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="31" t="s">
+      <c r="F44" s="39"/>
+      <c r="G44" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="31" t="s">
+      <c r="H44" s="35"/>
+      <c r="I44" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="31" t="s">
+      <c r="J44" s="35"/>
+      <c r="K44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L44" s="32"/>
+      <c r="L44" s="35"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
@@ -8371,7 +8371,7 @@
       <c r="W44" s="17"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
       </c>
@@ -8989,43 +8989,43 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35" t="s">
+      <c r="D61" s="39"/>
+      <c r="E61" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="35" t="s">
+      <c r="F61" s="39"/>
+      <c r="G61" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="35" t="s">
+      <c r="H61" s="39"/>
+      <c r="I61" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J61" s="36"/>
-      <c r="K61" s="31" t="s">
+      <c r="J61" s="39"/>
+      <c r="K61" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="32"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="12" t="s">
         <v>6</v>
       </c>
@@ -9626,36 +9626,36 @@
       <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="42"/>
+      <c r="T1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="39"/>
+      <c r="U1" s="42"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="42"/>
       <c r="N2" s="17" t="s">
         <v>54</v>
       </c>
@@ -10244,36 +10244,36 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="Q17" s="39" t="s">
+      <c r="O17" s="42"/>
+      <c r="Q17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="T17" s="39" t="s">
+      <c r="R17" s="42"/>
+      <c r="T17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U17" s="39"/>
+      <c r="U17" s="42"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="42"/>
+      <c r="H18" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="42"/>
       <c r="N18" s="17" t="s">
         <v>54</v>
       </c>
@@ -10862,36 +10862,36 @@
       <c r="C33" t="s">
         <v>58</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="Q33" s="39" t="s">
+      <c r="O33" s="42"/>
+      <c r="Q33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R33" s="39"/>
-      <c r="T33" s="39" t="s">
+      <c r="R33" s="42"/>
+      <c r="T33" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U33" s="39"/>
+      <c r="U33" s="42"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39" t="s">
+      <c r="E34" s="42"/>
+      <c r="F34" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="42"/>
       <c r="N34" s="17" t="s">
         <v>54</v>
       </c>
@@ -11477,36 +11477,36 @@
       <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="N49" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="O49" s="42"/>
+      <c r="Q49" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="T49" s="39" t="s">
+      <c r="R49" s="42"/>
+      <c r="T49" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U49" s="39"/>
+      <c r="U49" s="42"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39" t="s">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39" t="s">
+      <c r="E50" s="42"/>
+      <c r="F50" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39" t="s">
+      <c r="G50" s="42"/>
+      <c r="H50" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="39"/>
+      <c r="I50" s="42"/>
       <c r="N50" s="17" t="s">
         <v>54</v>
       </c>
@@ -12086,20 +12086,20 @@
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="Q66" s="17"/>
@@ -12287,36 +12287,36 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="Q2" s="39" t="s">
+      <c r="O2" s="42"/>
+      <c r="Q2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="T2" s="39" t="s">
+      <c r="R2" s="42"/>
+      <c r="T2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="39"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="42"/>
       <c r="N3" s="17" t="s">
         <v>54</v>
       </c>
@@ -12921,50 +12921,50 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="31" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="31" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="31" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="32"/>
+      <c r="U1" s="35"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
@@ -13784,7 +13784,7 @@
   <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13799,19 +13799,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40">
+      <c r="B1" s="43">
         <v>2022</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13834,7 +13834,7 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -13855,7 +13855,7 @@
       <c r="G3" s="1">
         <v>0.63390999999999997</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="26">
         <v>1133828.1106</v>
       </c>
     </row>
@@ -13878,7 +13878,7 @@
       <c r="G4" s="1">
         <v>0.83548999999999995</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="26">
         <v>2503244.7152375001</v>
       </c>
     </row>
@@ -13901,7 +13901,7 @@
       <c r="G5" s="1">
         <v>0.42952000000000001</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="26">
         <v>1343160.5127999999</v>
       </c>
     </row>
@@ -13924,7 +13924,7 @@
       <c r="G6" s="1">
         <v>0.26478000000000002</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="26">
         <v>755089.26986250002</v>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="G7" s="1">
         <v>0.21478</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="26">
         <v>649003.17843749991</v>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
       <c r="G8" s="1">
         <v>0.21260000000000001</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="26">
         <v>525405.1063374998</v>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       <c r="G9" s="1">
         <v>0.21004999999999999</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="26">
         <v>458771.68180000002</v>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       <c r="G10" s="1">
         <v>0.19763</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="26">
         <v>402888.85543749994</v>
       </c>
     </row>
@@ -14039,7 +14039,7 @@
       <c r="G11" s="1">
         <v>0.19797000000000001</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="26">
         <v>281285.39117499994</v>
       </c>
     </row>
@@ -14062,37 +14062,37 @@
       <c r="G12" s="1">
         <v>0.22811000000000001</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="26">
         <v>198221.80716250002</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="41">
+      <c r="B13" s="25">
         <f>SUM(B3:B12)</f>
         <v>8402153</v>
       </c>
-      <c r="C13" s="41">
-        <f t="shared" ref="C13:H13" si="0">SUM(C3:C12)</f>
+      <c r="C13" s="25">
+        <f>SUM(C3:C12)</f>
         <v>8425931</v>
       </c>
-      <c r="D13" s="41">
-        <f t="shared" si="0"/>
+      <c r="D13" s="25">
+        <f>SUM(D3:D12)</f>
         <v>3.2883599999999995</v>
       </c>
-      <c r="E13" s="41">
-        <f t="shared" si="0"/>
+      <c r="E13" s="25">
+        <f>SUM(E3:E12)</f>
         <v>3.4248400000000006</v>
       </c>
-      <c r="F13" s="41">
-        <f t="shared" si="0"/>
+      <c r="F13" s="25">
+        <f>SUM(F3:F12)</f>
         <v>3.2883599999999995</v>
       </c>
-      <c r="G13" s="41">
-        <f t="shared" si="0"/>
+      <c r="G13" s="25">
+        <f>SUM(G3:G12)</f>
         <v>3.4248400000000006</v>
       </c>
-      <c r="H13" s="45">
-        <f t="shared" si="0"/>
+      <c r="H13" s="27">
+        <f>SUM(H3:H12)</f>
         <v>8250898.6288500009</v>
       </c>
     </row>
